--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_126.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_126.xlsx
@@ -476,16 +476,16 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8207598445442166</v>
+        <v>41.02974113839863</v>
       </c>
       <c r="D2" t="n">
-        <v>8.207598445442166e-06</v>
+        <v>0.0004102974113839863</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999917924015546</v>
+        <v>0.999589702588616</v>
       </c>
       <c r="F2" t="n">
-        <v>120.3810580002341</v>
+        <v>71.66319036293268</v>
       </c>
     </row>
     <row r="3">
@@ -493,19 +493,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99999.17924015546</v>
+        <v>99958.97025886161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8642058102384429</v>
+        <v>43.18377188662431</v>
       </c>
       <c r="D3" t="n">
-        <v>8.642129033509249e-06</v>
+        <v>0.0004320149734915457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999913578709665</v>
+        <v>0.9995679850265085</v>
       </c>
       <c r="F3" t="n">
-        <v>119.3820419438952</v>
+        <v>70.69240042053542</v>
       </c>
     </row>
     <row r="4">
@@ -513,19 +513,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99998.31503434521</v>
+        <v>99915.78648697498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9106923102437393</v>
+        <v>45.48688584943878</v>
       </c>
       <c r="D4" t="n">
-        <v>9.107076553549476e-06</v>
+        <v>0.0004552522424008387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999908929234465</v>
+        <v>0.9995447477575992</v>
       </c>
       <c r="F4" t="n">
-        <v>118.3830693467204</v>
+        <v>69.72273769469911</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99997.40434203498</v>
+        <v>99870.29960112553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9604320858957954</v>
+        <v>47.94928101381507</v>
       </c>
       <c r="D5" t="n">
-        <v>9.604570160748338e-06</v>
+        <v>0.0004801155218850939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999903954298393</v>
+        <v>0.9995198844781149</v>
       </c>
       <c r="F5" t="n">
-        <v>117.3841429266344</v>
+        <v>68.75426585452522</v>
       </c>
     </row>
     <row r="6">
@@ -553,19 +553,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99996.44390994908</v>
+        <v>99822.35032011171</v>
       </c>
       <c r="C6" t="n">
-        <v>1.01365275694298</v>
+        <v>50.58183621406519</v>
       </c>
       <c r="D6" t="n">
-        <v>1.013688804629709e-05</v>
+        <v>0.0005067185460155832</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999898631119537</v>
+        <v>0.9994932814539844</v>
       </c>
       <c r="F6" t="n">
-        <v>116.3852655593683</v>
+        <v>67.78705152790754</v>
       </c>
     </row>
     <row r="7">
@@ -573,19 +573,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99995.43025719214</v>
+        <v>99771.76848389764</v>
       </c>
       <c r="C7" t="n">
-        <v>1.070597861189099</v>
+        <v>53.39615414241699</v>
       </c>
       <c r="D7" t="n">
-        <v>1.070646786993645e-05</v>
+        <v>0.0005351829976937283</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999892935321301</v>
+        <v>0.9994648170023063</v>
       </c>
       <c r="F7" t="n">
-        <v>115.3864402872395</v>
+        <v>66.82116441045368</v>
       </c>
     </row>
     <row r="8">
@@ -593,19 +593,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99994.35965933095</v>
+        <v>99718.37232975522</v>
       </c>
       <c r="C8" t="n">
-        <v>1.131527966570727</v>
+        <v>56.40460671354154</v>
       </c>
       <c r="D8" t="n">
-        <v>1.131591792202791e-05</v>
+        <v>0.0005656390632512442</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999988684082078</v>
+        <v>0.9994343609367488</v>
       </c>
       <c r="F8" t="n">
-        <v>114.3876703283906</v>
+        <v>65.85667737596873</v>
       </c>
     </row>
     <row r="9">
@@ -613,19 +613,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99993.22813136438</v>
+        <v>99661.96772304169</v>
       </c>
       <c r="C9" t="n">
-        <v>1.196721860723813</v>
+        <v>59.62038285531604</v>
       </c>
       <c r="D9" t="n">
-        <v>1.196802906644479e-05</v>
+        <v>0.0005982260256088834</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999880319709336</v>
+        <v>0.9994017739743911</v>
       </c>
       <c r="F9" t="n">
-        <v>113.3889590865038</v>
+        <v>64.89366658828028</v>
       </c>
     </row>
     <row r="10">
@@ -633,19 +633,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99992.03140950366</v>
+        <v>99602.34734018637</v>
       </c>
       <c r="C10" t="n">
-        <v>1.266477823516484</v>
+        <v>63.05753879039505</v>
       </c>
       <c r="D10" t="n">
-        <v>1.266578751990544e-05</v>
+        <v>0.0006330928986545414</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999873342124801</v>
+        <v>0.9993669071013455</v>
       </c>
       <c r="F10" t="n">
-        <v>112.3903101610171</v>
+        <v>63.93221161415543</v>
       </c>
     </row>
     <row r="11">
@@ -653,19 +653,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99990.76493168014</v>
+        <v>99539.28980139598</v>
       </c>
       <c r="C11" t="n">
-        <v>1.34111498827914</v>
+        <v>66.73105086317743</v>
       </c>
       <c r="D11" t="n">
-        <v>1.34123885260351e-05</v>
+        <v>0.0006703991056830061</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999986587611474</v>
+        <v>0.999329600894317</v>
       </c>
       <c r="F11" t="n">
-        <v>111.3917273578611</v>
+        <v>62.97239553703051</v>
       </c>
     </row>
     <row r="12">
@@ -673,19 +673,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99989.42381669187</v>
+        <v>99472.5587505328</v>
       </c>
       <c r="C12" t="n">
-        <v>1.420974797726423</v>
+        <v>70.65687095394316</v>
       </c>
       <c r="D12" t="n">
-        <v>1.42112509852188e-05</v>
+        <v>0.0007103152049314776</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999857887490148</v>
+        <v>0.9992896847950685</v>
       </c>
       <c r="F12" t="n">
-        <v>110.3932147007415</v>
+        <v>62.01430507124267</v>
       </c>
     </row>
     <row r="13">
@@ -693,19 +693,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99988.00284189414</v>
+        <v>99401.90187957886</v>
       </c>
       <c r="C13" t="n">
-        <v>1.506422561404374</v>
+        <v>74.85198450612164</v>
       </c>
       <c r="D13" t="n">
-        <v>1.506603310985621e-05</v>
+        <v>0.0007530236654506028</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999849339668901</v>
+        <v>0.9992469763345494</v>
       </c>
       <c r="F13" t="n">
-        <v>109.3947764429915</v>
+        <v>61.05803067641776</v>
       </c>
     </row>
     <row r="14">
@@ -713,19 +713,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99986.49641933273</v>
+        <v>99327.04989507273</v>
       </c>
       <c r="C14" t="n">
-        <v>1.597849121422201</v>
+        <v>79.33447117322143</v>
       </c>
       <c r="D14" t="n">
-        <v>1.598064917407438e-05</v>
+        <v>0.0007987196967697008</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999840193508259</v>
+        <v>0.9992012803032303</v>
       </c>
       <c r="F14" t="n">
-        <v>108.3964170800168</v>
+        <v>60.10366667163459</v>
       </c>
     </row>
     <row r="15">
@@ -733,19 +733,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99984.89857021131</v>
+        <v>99247.71542389951</v>
       </c>
       <c r="C15" t="n">
-        <v>1.69567263412842</v>
+        <v>84.12356806795022</v>
       </c>
       <c r="D15" t="n">
-        <v>1.695928743616903e-05</v>
+        <v>0.000847612136044118</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999830407125638</v>
+        <v>0.9991523878639559</v>
       </c>
       <c r="F15" t="n">
-        <v>107.3981413623604</v>
+        <v>59.15131134894713</v>
       </c>
     </row>
     <row r="16">
@@ -753,19 +753,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99983.20289757718</v>
+        <v>99163.59185583156</v>
       </c>
       <c r="C16" t="n">
-        <v>1.800340475766711</v>
+        <v>89.23973556833595</v>
       </c>
       <c r="D16" t="n">
-        <v>1.800642931604202e-05</v>
+        <v>0.0008999243966281156</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999981993570684</v>
+        <v>0.9991000756033719</v>
       </c>
       <c r="F16" t="n">
-        <v>106.3999543094125</v>
+        <v>58.20106708580779</v>
       </c>
     </row>
     <row r="17">
@@ -773,19 +773,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>99981.40255710142</v>
+        <v>99074.35212026323</v>
       </c>
       <c r="C17" t="n">
-        <v>1.912331280452258</v>
+        <v>94.70472560042595</v>
       </c>
       <c r="D17" t="n">
-        <v>1.912686991323298e-05</v>
+        <v>0.0009558954822683763</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999808731300868</v>
+        <v>0.9990441045177316</v>
       </c>
       <c r="F17" t="n">
-        <v>105.4018612237911</v>
+        <v>57.2530404558935</v>
       </c>
     </row>
     <row r="18">
@@ -793,19 +793,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>99979.49022582096</v>
+        <v>98979.6473946628</v>
       </c>
       <c r="C18" t="n">
-        <v>2.032157119854638</v>
+        <v>100.5416522778493</v>
       </c>
       <c r="D18" t="n">
-        <v>2.032573996191278e-05</v>
+        <v>0.001015781071405097</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999796742600381</v>
+        <v>0.9989842189285949</v>
       </c>
       <c r="F18" t="n">
-        <v>104.4038677064221</v>
+        <v>56.30734233779386</v>
       </c>
     </row>
     <row r="19">
@@ -813,19 +813,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>99977.4580687011</v>
+        <v>98879.10574238494</v>
       </c>
       <c r="C19" t="n">
-        <v>2.160365834236896</v>
+        <v>106.7750647299199</v>
       </c>
       <c r="D19" t="n">
-        <v>2.160852932220347e-05</v>
+        <v>0.001079854676357073</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999783914706778</v>
+        <v>0.9989201453236429</v>
       </c>
       <c r="F19" t="n">
-        <v>103.4059796723454</v>
+        <v>55.36408802097688</v>
       </c>
     </row>
     <row r="20">
@@ -833,19 +833,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>99975.29770286687</v>
+        <v>98772.33067765502</v>
       </c>
       <c r="C20" t="n">
-        <v>2.29754352526953</v>
+        <v>113.4310218939008</v>
       </c>
       <c r="D20" t="n">
-        <v>2.298111211529452e-05</v>
+        <v>0.001148408882484353</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999770188878847</v>
+        <v>0.9988515911175156</v>
       </c>
       <c r="F20" t="n">
-        <v>102.4082033672754</v>
+        <v>54.42339730840178</v>
       </c>
     </row>
     <row r="21">
@@ -853,19 +853,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>99973.00015934159</v>
+        <v>98658.89965576111</v>
       </c>
       <c r="C21" t="n">
-        <v>2.444317221756729</v>
+        <v>120.5371689818844</v>
       </c>
       <c r="D21" t="n">
-        <v>2.444977361748535e-05</v>
+        <v>0.00122175667276303</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999755502263825</v>
+        <v>0.998778243327237</v>
       </c>
       <c r="F21" t="n">
-        <v>101.4105453849446</v>
+        <v>53.48539461510219</v>
       </c>
     </row>
     <row r="22">
@@ -873,19 +873,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>99970.55584211984</v>
+        <v>98538.36248677922</v>
       </c>
       <c r="C22" t="n">
-        <v>2.601357730135176</v>
+        <v>128.1228152552156</v>
       </c>
       <c r="D22" t="n">
-        <v>2.602123903605591e-05</v>
+        <v>0.00130023284355274</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999739787609639</v>
+        <v>0.9986997671564473</v>
       </c>
       <c r="F22" t="n">
-        <v>100.4130126852598</v>
+        <v>52.55020906201518</v>
       </c>
     </row>
     <row r="23">
@@ -893,19 +893,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>99967.9544843897</v>
+        <v>98410.239671524</v>
       </c>
       <c r="C23" t="n">
-        <v>2.769382682454022</v>
+        <v>136.2190126516928</v>
       </c>
       <c r="D23" t="n">
-        <v>2.770270429897081e-05</v>
+        <v>0.001384195517726283</v>
       </c>
       <c r="E23" t="n">
-        <v>0.999972297295701</v>
+        <v>0.9986158044822737</v>
       </c>
       <c r="F23" t="n">
-        <v>99.41561261329907</v>
+        <v>51.61797456428311</v>
       </c>
     </row>
     <row r="24">
@@ -913,19 +913,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>99965.18510170725</v>
+        <v>98274.02065887231</v>
       </c>
       <c r="C24" t="n">
-        <v>2.949159795339576</v>
+        <v>144.8586347068926</v>
       </c>
       <c r="D24" t="n">
-        <v>2.950186899908225e-05</v>
+        <v>0.001474027761718677</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999704981310009</v>
+        <v>0.9985259722382813</v>
       </c>
       <c r="F24" t="n">
-        <v>98.41835291917972</v>
+        <v>50.68882991320663</v>
       </c>
     </row>
     <row r="25">
@@ -933,19 +933,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>99962.2359419119</v>
+        <v>98129.16202416542</v>
       </c>
       <c r="C25" t="n">
-        <v>3.141510354344021</v>
+        <v>154.0764550935945</v>
       </c>
       <c r="D25" t="n">
-        <v>3.142697164326691e-05</v>
+        <v>0.001570139313486152</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999685730283567</v>
+        <v>0.9984298606865138</v>
       </c>
       <c r="F25" t="n">
-        <v>97.42124177882692</v>
+        <v>49.76291885097798</v>
       </c>
     </row>
     <row r="26">
@@ -953,19 +953,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>99959.09443155756</v>
+        <v>97975.08556907182</v>
       </c>
       <c r="C26" t="n">
-        <v>3.347312939116815</v>
+        <v>163.9092249666821</v>
       </c>
       <c r="D26" t="n">
-        <v>3.348682736825648e-05</v>
+        <v>0.001672968428806598</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999665131726317</v>
+        <v>0.9983270315711934</v>
       </c>
       <c r="F26" t="n">
-        <v>96.42428781567166</v>
+        <v>48.84039013727526</v>
       </c>
     </row>
     <row r="27">
@@ -973,19 +973,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>99955.74711861844</v>
+        <v>97811.17634410513</v>
       </c>
       <c r="C27" t="n">
-        <v>3.567507405741346</v>
+        <v>174.3957481454433</v>
       </c>
       <c r="D27" t="n">
-        <v>3.56908682950241e-05</v>
+        <v>0.001782983853827802</v>
       </c>
       <c r="E27" t="n">
-        <v>0.999964309131705</v>
+        <v>0.9982170161461722</v>
       </c>
       <c r="F27" t="n">
-        <v>95.42750012330816</v>
+        <v>47.92139760675004</v>
       </c>
     </row>
     <row r="28">
@@ -993,19 +993,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>99952.1796112127</v>
+        <v>97636.78059595969</v>
       </c>
       <c r="C28" t="n">
-        <v>3.803099143745463</v>
+        <v>185.5769529876072</v>
       </c>
       <c r="D28" t="n">
-        <v>3.804918670646806e-05</v>
+        <v>0.001900686932269524</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9999619508132935</v>
+        <v>0.9980993130677305</v>
       </c>
       <c r="F28" t="n">
-        <v>94.4308882891392</v>
+        <v>47.0061002163942</v>
       </c>
     </row>
     <row r="29">
@@ -1013,19 +1013,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>99948.37651206896</v>
+        <v>97451.20364297208</v>
       </c>
       <c r="C29" t="n">
-        <v>4.0551636265761</v>
+        <v>197.4959596073467</v>
       </c>
       <c r="D29" t="n">
-        <v>4.057258124734453e-05</v>
+        <v>0.002026613856211612</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9999594274187527</v>
+        <v>0.9979733861437884</v>
       </c>
       <c r="F29" t="n">
-        <v>93.43446241903797</v>
+        <v>46.09466208172646</v>
       </c>
     </row>
     <row r="30">
@@ -1033,19 +1033,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>99944.32134844239</v>
+        <v>97253.70768336473</v>
       </c>
       <c r="C30" t="n">
-        <v>4.324851275046035</v>
+        <v>210.1981408599101</v>
       </c>
       <c r="D30" t="n">
-        <v>4.327260635417218e-05</v>
+        <v>0.002161338069950669</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9999567273936458</v>
+        <v>0.9978386619300493</v>
       </c>
       <c r="F30" t="n">
-        <v>92.43823316305397</v>
+        <v>45.18725250069661</v>
       </c>
     </row>
     <row r="31">
@@ -1053,19 +1053,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>99939.99649716735</v>
+        <v>97043.50954250482</v>
       </c>
       <c r="C31" t="n">
-        <v>4.613392655254053</v>
+        <v>223.7311752572228</v>
       </c>
       <c r="D31" t="n">
-        <v>4.616162514459177e-05</v>
+        <v>0.002305472836998224</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9999538383748554</v>
+        <v>0.9976945271630018</v>
       </c>
       <c r="F31" t="n">
-        <v>91.44221174219</v>
+        <v>44.28404596416539</v>
       </c>
     </row>
     <row r="32">
@@ -1073,19 +1073,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>99935.38310451209</v>
+        <v>96819.77836724759</v>
       </c>
       <c r="C32" t="n">
-        <v>4.922104033381354</v>
+        <v>238.1450896860658</v>
       </c>
       <c r="D32" t="n">
-        <v>4.925286600676593e-05</v>
+        <v>0.002459673980896304</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9999507471339932</v>
+        <v>0.9975403260191037</v>
       </c>
       <c r="F32" t="n">
-        <v>90.44640997627556</v>
+        <v>43.38522215178194</v>
       </c>
     </row>
     <row r="33">
@@ -1093,19 +1093,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>99930.46100047871</v>
+        <v>96581.63327756153</v>
       </c>
       <c r="C33" t="n">
-        <v>5.252393311204561</v>
+        <v>253.4922894734195</v>
       </c>
       <c r="D33" t="n">
-        <v>5.256048314616901e-05</v>
+        <v>0.002624642811174249</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9999474395168538</v>
+        <v>0.9973753571888258</v>
       </c>
       <c r="F33" t="n">
-        <v>89.45084031296071</v>
+        <v>42.4909659120494</v>
       </c>
     </row>
     <row r="34">
@@ -1113,19 +1113,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>99925.2086071675</v>
+        <v>96328.14098808811</v>
       </c>
       <c r="C34" t="n">
-        <v>5.605766368079231</v>
+        <v>269.8275729766773</v>
       </c>
       <c r="D34" t="n">
-        <v>5.609962136898794e-05</v>
+        <v>0.002801129246437384</v>
       </c>
       <c r="E34" t="n">
-        <v>0.999943900378631</v>
+        <v>0.9971988707535626</v>
       </c>
       <c r="F34" t="n">
-        <v>88.45551585785272</v>
+        <v>41.6014672253423</v>
       </c>
     </row>
     <row r="35">
@@ -1133,19 +1133,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>99919.60284079942</v>
+        <v>96058.31341511144</v>
       </c>
       <c r="C35" t="n">
-        <v>5.983833836234109</v>
+        <v>287.2081274684362</v>
       </c>
       <c r="D35" t="n">
-        <v>5.988648539534402e-05</v>
+        <v>0.00298993514728163</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9999401135146047</v>
+        <v>0.9970100648527184</v>
       </c>
       <c r="F35" t="n">
-        <v>87.46045040581593</v>
+        <v>40.7169211486198</v>
       </c>
     </row>
     <row r="36">
@@ -1153,19 +1153,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>99913.61900696318</v>
+        <v>95771.105287643</v>
       </c>
       <c r="C36" t="n">
-        <v>6.388318338433925</v>
+        <v>305.6935026325128</v>
       </c>
       <c r="D36" t="n">
-        <v>6.393841402130285e-05</v>
+        <v>0.003191917872456207</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9999360615859787</v>
+        <v>0.9968080821275438</v>
       </c>
       <c r="F36" t="n">
-        <v>86.465658473452</v>
+        <v>39.83752774056577</v>
       </c>
     </row>
     <row r="37">
@@ -1173,19 +1173,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>99907.23068862475</v>
+        <v>95465.4117850105</v>
       </c>
       <c r="C37" t="n">
-        <v>6.821062218568824</v>
+        <v>325.3455574876707</v>
       </c>
       <c r="D37" t="n">
-        <v>6.827395946773507e-05</v>
+        <v>0.003407994072453735</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9999317260405323</v>
+        <v>0.9965920059275463</v>
       </c>
       <c r="F37" t="n">
-        <v>85.47115533277555</v>
+        <v>38.96349196588118</v>
       </c>
     </row>
     <row r="38">
@@ -1193,19 +1193,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>99900.40962640618</v>
+        <v>95140.06622752282</v>
       </c>
       <c r="C38" t="n">
-        <v>7.284035797591636</v>
+        <v>346.2283760065334</v>
       </c>
       <c r="D38" t="n">
-        <v>7.291297227740579e-05</v>
+        <v>0.003639143735495676</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9999270870277226</v>
+        <v>0.9963608562645043</v>
       </c>
       <c r="F38" t="n">
-        <v>84.47695704609662</v>
+        <v>38.09502357745938</v>
       </c>
     </row>
     <row r="39">
@@ -1213,19 +1213,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>99893.12559060859</v>
+        <v>94793.83785151629</v>
       </c>
       <c r="C39" t="n">
-        <v>7.779346189463734</v>
+        <v>368.4081460968807</v>
       </c>
       <c r="D39" t="n">
-        <v>7.787669214942561e-05</v>
+        <v>0.003886414501688917</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9999221233078506</v>
+        <v>0.9961135854983111</v>
       </c>
       <c r="F39" t="n">
-        <v>83.48308050211703</v>
+        <v>37.23233697518825</v>
       </c>
     </row>
     <row r="40">
@@ -1233,19 +1233,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>99885.34624441912</v>
+        <v>94425.42970541942</v>
       </c>
       <c r="C40" t="n">
-        <v>8.309246713588845</v>
+        <v>391.952995961472</v>
       </c>
       <c r="D40" t="n">
-        <v>8.31878451245105e-05</v>
+        <v>0.004150926261964116</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9999168121548755</v>
+        <v>0.9958490737380359</v>
       </c>
       <c r="F40" t="n">
-        <v>82.48954345324417</v>
+        <v>36.3756510401499</v>
       </c>
     </row>
     <row r="41">
@@ -1253,19 +1253,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>99877.03699770554</v>
+        <v>94033.47670945794</v>
       </c>
       <c r="C41" t="n">
-        <v>8.876146942676991</v>
+        <v>416.9327811511048</v>
       </c>
       <c r="D41" t="n">
-        <v>8.887074756613877e-05</v>
+        <v>0.0044338760592606</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9999111292524339</v>
+        <v>0.9955661239407394</v>
       </c>
       <c r="F41" t="n">
-        <v>81.49636455411947</v>
+        <v>35.52518894302574</v>
       </c>
     </row>
     <row r="42">
@@ -1273,19 +1273,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>99868.16085076286</v>
+        <v>93616.54392830684</v>
       </c>
       <c r="C42" t="n">
-        <v>9.482623426921416</v>
+        <v>443.4188148763046</v>
       </c>
       <c r="D42" t="n">
-        <v>9.495141741011626e-05</v>
+        <v>0.004736543310292274</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9999050485825899</v>
+        <v>0.9952634566897077</v>
       </c>
       <c r="F42" t="n">
-        <v>80.50356340135446</v>
+        <v>34.68117792556649</v>
       </c>
     </row>
     <row r="43">
@@ -1293,19 +1293,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>99858.67822733593</v>
+        <v>93173.12511343053</v>
       </c>
       <c r="C43" t="n">
-        <v>10.13143113816186</v>
+        <v>471.4835333505548</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0001014576931921418</v>
+        <v>0.005060295367108947</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9998985423068079</v>
+        <v>0.9949397046328911</v>
       </c>
       <c r="F43" t="n">
-        <v>79.51116057445965</v>
+        <v>33.84384905405316</v>
       </c>
     </row>
     <row r="44">
@@ -1313,19 +1313,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>99848.54679619777</v>
+        <v>92701.64158007997</v>
       </c>
       <c r="C44" t="n">
-        <v>10.82551567979006</v>
+        <v>501.2000871101878</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0001084193613942741</v>
+        <v>0.00540659343855554</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9998915806386057</v>
+        <v>0.9945934065614445</v>
       </c>
       <c r="F44" t="n">
-        <v>78.5191776779448</v>
+        <v>33.01343694375554</v>
       </c>
     </row>
     <row r="45">
@@ -1333,19 +1333,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>99837.72128051797</v>
+        <v>92200.44149296978</v>
       </c>
       <c r="C45" t="n">
-        <v>11.56802631110549</v>
+        <v>532.6418484030771</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0001158682926927224</v>
+        <v>0.005776998892610408</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9998841317073073</v>
+        <v>0.9942230011073896</v>
       </c>
       <c r="F45" t="n">
-        <v>77.52763738456113</v>
+        <v>32.19017945349401</v>
       </c>
     </row>
     <row r="46">
@@ -1353,19 +1353,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>99826.15325420687</v>
+        <v>91667.79964456671</v>
       </c>
       <c r="C46" t="n">
-        <v>12.36232983721105</v>
+        <v>565.8818238768519</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0001238385877269099</v>
+        <v>0.006173179961458719</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9998761614122731</v>
+        <v>0.9938268200385413</v>
       </c>
       <c r="F46" t="n">
-        <v>76.53656347964643</v>
+        <v>31.37431734952493</v>
       </c>
     </row>
     <row r="47">
@@ -1373,19 +1373,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>99813.79092436966</v>
+        <v>91101.91782068985</v>
       </c>
       <c r="C47" t="n">
-        <v>13.21202541836623</v>
+        <v>600.9919609467911</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0001323667330537237</v>
+        <v>0.006596918872000979</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9998676332669463</v>
+        <v>0.993403081127999</v>
       </c>
       <c r="F47" t="n">
-        <v>75.54598090652421</v>
+        <v>30.56609393810443</v>
       </c>
     </row>
     <row r="48">
@@ -1393,19 +1393,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>99800.57889895129</v>
+        <v>90500.92585974306</v>
       </c>
       <c r="C48" t="n">
-        <v>14.12096035579639</v>
+        <v>638.0423354123928</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0001414917679996019</v>
+        <v>0.007050119425310863</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9998585082320004</v>
+        <v>0.9929498805746891</v>
       </c>
       <c r="F48" t="n">
-        <v>74.55591581289671</v>
+        <v>29.76575466623748</v>
       </c>
     </row>
     <row r="49">
@@ -1413,19 +1413,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>99786.4579385955</v>
+        <v>89862.88352433067</v>
       </c>
       <c r="C49" t="n">
-        <v>15.09324691322677</v>
+        <v>677.1002071538452</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0001512554631662999</v>
+        <v>0.007534815049313637</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9998487445368337</v>
+        <v>0.9924651849506864</v>
       </c>
       <c r="F49" t="n">
-        <v>73.56639559815926</v>
+        <v>28.97354669029151</v>
       </c>
     </row>
     <row r="50">
@@ -1433,19 +1433,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>99771.36469168228</v>
+        <v>89185.78331717683</v>
       </c>
       <c r="C50" t="n">
-        <v>16.13328023711684</v>
+        <v>718.2289301203692</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0001617025114066806</v>
+        <v>0.008053177349646501</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9998382974885933</v>
+        <v>0.9919468226503535</v>
       </c>
       <c r="F50" t="n">
-        <v>72.57744896154894</v>
+        <v>28.18971841234542</v>
       </c>
     </row>
     <row r="51">
@@ -1453,19 +1453,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>99755.23141144516</v>
+        <v>88467.55438705646</v>
       </c>
       <c r="C51" t="n">
-        <v>17.24575744097889</v>
+        <v>761.4867023762833</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0001728807321377257</v>
+        <v>0.00860752518425778</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9998271192678623</v>
+        <v>0.9913924748157422</v>
       </c>
       <c r="F51" t="n">
-        <v>71.58910595102628</v>
+        <v>27.41451898435653</v>
       </c>
     </row>
     <row r="52">
@@ -1473,19 +1473,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>99737.98565400418</v>
+        <v>87706.06768468018</v>
       </c>
       <c r="C52" t="n">
-        <v>18.43569792218914</v>
+        <v>806.9251417656774</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0001848412899188023</v>
+        <v>0.009200334287779555</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9998151587100812</v>
+        <v>0.9907996657122204</v>
       </c>
       <c r="F52" t="n">
-        <v>70.60139801277076</v>
+        <v>26.64819778045904</v>
       </c>
     </row>
     <row r="53">
@@ -1493,19 +1493,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>99719.54995608199</v>
+        <v>86899.1425429145</v>
       </c>
       <c r="C53" t="n">
-        <v>19.70846498298638</v>
+        <v>854.5876728754076</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0001976389282910551</v>
+        <v>0.009834247472043534</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9998023610717089</v>
+        <v>0.9901657525279565</v>
       </c>
       <c r="F53" t="n">
-        <v>69.61435804115291</v>
+        <v>25.89100383795833</v>
       </c>
     </row>
     <row r="54">
@@ -1513,19 +1513,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>99699.841491099</v>
+        <v>86044.55487003909</v>
       </c>
       <c r="C54" t="n">
-        <v>21.06978882979934</v>
+        <v>904.5077115157237</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0002113322199381873</v>
+        <v>0.01051208542925097</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9997886677800618</v>
+        <v>0.989487914570749</v>
       </c>
       <c r="F54" t="n">
-        <v>68.6280204290254</v>
+        <v>25.14318526785386</v>
       </c>
     </row>
     <row r="55">
@@ -1533,19 +1533,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>99678.77170226919</v>
+        <v>85140.04715852338</v>
       </c>
       <c r="C55" t="n">
-        <v>22.52579102817444</v>
+        <v>956.706634017176</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0002259838343058318</v>
+        <v>0.01123685816424169</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9997740161656942</v>
+        <v>0.9887631418357583</v>
       </c>
       <c r="F55" t="n">
-        <v>67.64242111815226</v>
+        <v>24.40498863601014</v>
       </c>
     </row>
     <row r="56">
@@ -1553,19 +1553,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>99656.24591124101</v>
+        <v>84183.3405245062</v>
       </c>
       <c r="C56" t="n">
-        <v>24.08301049299255</v>
+        <v>1011.191520394986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0002416608238929863</v>
+        <v>0.01201177708195866</v>
       </c>
       <c r="E56" t="n">
-        <v>0.999758339176107</v>
+        <v>0.9879882229180413</v>
       </c>
       <c r="F56" t="n">
-        <v>66.65759764957187</v>
+        <v>23.67665831639682</v>
       </c>
     </row>
     <row r="57">
@@ -1573,19 +1573,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>99632.16290074802</v>
+        <v>83172.14900411121</v>
       </c>
       <c r="C57" t="n">
-        <v>25.74843109621721</v>
+        <v>1067.952663016599</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0002584349305140288</v>
+        <v>0.0128402677555417</v>
       </c>
       <c r="E57" t="n">
-        <v>0.999741565069486</v>
+        <v>0.9871597322444583</v>
       </c>
       <c r="F57" t="n">
-        <v>65.6735892136612</v>
+        <v>22.9584358181357</v>
       </c>
     </row>
     <row r="58">
@@ -1593,19 +1593,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>99606.41446965181</v>
+        <v>82104.19634109462</v>
       </c>
       <c r="C58" t="n">
-        <v>27.52951097659311</v>
+        <v>1126.960836001979</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0002763829129195372</v>
+        <v>0.01372598339943698</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9997236170870805</v>
+        <v>0.986274016600563</v>
       </c>
       <c r="F58" t="n">
-        <v>64.69043669963986</v>
+        <v>22.25055908841928</v>
       </c>
     </row>
     <row r="59">
@@ -1613,19 +1613,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>99578.88495867522</v>
+        <v>80977.23550509264</v>
       </c>
       <c r="C59" t="n">
-        <v>29.43421363736316</v>
+        <v>1188.164325387348</v>
       </c>
       <c r="D59" t="n">
-        <v>0.000295586897258171</v>
+        <v>0.01467281907039941</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9997044131027418</v>
+        <v>0.9853271809296006</v>
       </c>
       <c r="F59" t="n">
-        <v>63.70818274421997</v>
+        <v>21.55326179370308</v>
       </c>
     </row>
     <row r="60">
@@ -1633,19 +1633,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>99549.45074503786</v>
+        <v>79789.07117970529</v>
       </c>
       <c r="C60" t="n">
-        <v>31.47104091985641</v>
+        <v>1251.485726310962</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0003161347519682334</v>
+        <v>0.01568492661723431</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9996838652480318</v>
+        <v>0.9843150733827657</v>
       </c>
       <c r="F60" t="n">
-        <v>62.72687177907248</v>
+        <v>20.8667725819159</v>
       </c>
     </row>
     <row r="61">
@@ -1653,19 +1653,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>99517.979704118</v>
+        <v>78537.58545339433</v>
       </c>
       <c r="C61" t="n">
-        <v>33.64906794079557</v>
+        <v>1316.81852136393</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0003381204887884515</v>
+        <v>0.01676673039745225</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9996618795112115</v>
+        <v>0.9832332696025478</v>
       </c>
       <c r="F61" t="n">
-        <v>61.74655007674188</v>
+        <v>20.1913143287769</v>
       </c>
     </row>
     <row r="62">
@@ -1673,19 +1673,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>99484.3306361772</v>
+        <v>77220.7669320304</v>
       </c>
       <c r="C62" t="n">
-        <v>35.97798008252769</v>
+        <v>1384.023464032941</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0003616446917062976</v>
+        <v>0.01792294377561876</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9996383553082937</v>
+        <v>0.9820770562243812</v>
       </c>
       <c r="F62" t="n">
-        <v>60.76726579459908</v>
+        <v>19.52710337165129</v>
       </c>
     </row>
     <row r="63">
@@ -1693,19 +1693,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>99448.35265609466</v>
+        <v>75836.74346799745</v>
       </c>
       <c r="C63" t="n">
-        <v>38.46811212319709</v>
+        <v>1452.924803082551</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0003868149757716433</v>
+        <v>0.01915858641392842</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9996131850242284</v>
+        <v>0.9808414135860716</v>
       </c>
       <c r="F63" t="n">
-        <v>59.78906901637676</v>
+        <v>18.87434873471277</v>
       </c>
     </row>
     <row r="64">
@@ -1713,19 +1713,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>99409.88454397146</v>
+        <v>74383.8186649149</v>
       </c>
       <c r="C64" t="n">
-        <v>41.13048959360702</v>
+        <v>1523.306398007207</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0004137464778506406</v>
+        <v>0.02047900236030387</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9995862535221494</v>
+        <v>0.9795209976396961</v>
       </c>
       <c r="F64" t="n">
-        <v>58.81201179078059</v>
+        <v>18.23325134950613</v>
       </c>
     </row>
     <row r="65">
@@ -1733,19 +1733,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>99368.75405437786</v>
+        <v>72860.5122669077</v>
       </c>
       <c r="C65" t="n">
-        <v>43.97687244349535</v>
+        <v>1594.907792515265</v>
       </c>
       <c r="D65" t="n">
-        <v>0.00044256238152518</v>
+        <v>0.02188987893294914</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9995574376184748</v>
+        <v>0.9781101210670509</v>
       </c>
       <c r="F65" t="n">
-        <v>57.83614816661589</v>
+        <v>17.60400327531219</v>
       </c>
     </row>
     <row r="66">
@@ -1753,19 +1753,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>99324.77718193436</v>
+        <v>71265.60447439243</v>
       </c>
       <c r="C66" t="n">
-        <v>47.01980109603046</v>
+        <v>1667.420332517737</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00047339447849859</v>
+        <v>0.02339726639260997</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9995266055215014</v>
+        <v>0.97660273360739</v>
       </c>
       <c r="F66" t="n">
-        <v>56.86153422380992</v>
+        <v>16.98678692400494</v>
       </c>
     </row>
     <row r="67">
@@ -1773,19 +1773,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>99277.75738083833</v>
+        <v>69598.18414187469</v>
       </c>
       <c r="C67" t="n">
-        <v>50.27264496363091</v>
+        <v>1740.48343731896</v>
       </c>
       <c r="D67" t="n">
-        <v>0.000506383769032781</v>
+        <v>0.02500759838462185</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9994936162309672</v>
+        <v>0.9749924016153781</v>
       </c>
       <c r="F67" t="n">
-        <v>55.88822809964461</v>
+        <v>16.38177429434975</v>
       </c>
     </row>
     <row r="68">
@@ -1793,19 +1793,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>99227.48473587471</v>
+        <v>67857.70070455573</v>
       </c>
       <c r="C68" t="n">
-        <v>53.74965348919333</v>
+        <v>1813.68115754562</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0005416811041040193</v>
+        <v>0.02672771312193689</v>
       </c>
       <c r="E68" t="n">
-        <v>0.999458318895896</v>
+        <v>0.9732722868780631</v>
       </c>
       <c r="F68" t="n">
-        <v>54.9162900094454</v>
+        <v>15.78912622091889</v>
       </c>
     </row>
     <row r="69">
@@ -1813,19 +1813,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>99173.73508238551</v>
+        <v>66044.0195470101</v>
       </c>
       <c r="C69" t="n">
-        <v>57.46600976748481</v>
+        <v>1886.539180523756</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0005794478721583562</v>
+        <v>0.02856487526748608</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9994205521278416</v>
+        <v>0.9714351247325139</v>
       </c>
       <c r="F69" t="n">
-        <v>53.94578226089429</v>
+        <v>15.20899164298757</v>
       </c>
     </row>
     <row r="70">
@@ -1833,19 +1833,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>99116.26907261803</v>
+        <v>64157.48036648634</v>
       </c>
       <c r="C70" t="n">
-        <v>61.4378867874231</v>
+        <v>1958.522472796522</v>
       </c>
       <c r="D70" t="n">
-        <v>0.00061985673353393</v>
+        <v>0.03052679845917994</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9993801432664661</v>
+        <v>0.9694732015408201</v>
       </c>
       <c r="F70" t="n">
-        <v>52.97676926105252</v>
+        <v>14.64150689891691</v>
       </c>
     </row>
     <row r="71">
@@ -1853,19 +1853,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>99054.83118583061</v>
+        <v>62198.95789368982</v>
       </c>
       <c r="C71" t="n">
-        <v>65.68250632014765</v>
+        <v>2029.033779438385</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0006630924058305121</v>
+        <v>0.03262166840329384</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9993369075941695</v>
+        <v>0.9673783315967062</v>
       </c>
       <c r="F71" t="n">
-        <v>52.00931751508751</v>
+        <v>14.08679505162318</v>
       </c>
     </row>
     <row r="72">
@@ -1873,19 +1873,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>98989.14867951046</v>
+        <v>60169.92411425144</v>
       </c>
       <c r="C72" t="n">
-        <v>70.21820045729089</v>
+        <v>2097.413229552878</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0007093525037237258</v>
+        <v>0.03485816644159767</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9992906474962763</v>
+        <v>0.9651418335584023</v>
       </c>
       <c r="F72" t="n">
-        <v>51.04349561560017</v>
+        <v>13.54496525076957</v>
       </c>
     </row>
     <row r="73">
@@ -1893,19 +1893,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>98918.93047905316</v>
+        <v>58072.51088469856</v>
       </c>
       <c r="C73" t="n">
-        <v>75.06447577981208</v>
+        <v>2162.939325176322</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0007588484369602799</v>
+        <v>0.03724549347402561</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9992411515630397</v>
+        <v>0.9627545065259744</v>
       </c>
       <c r="F73" t="n">
-        <v>50.07937422134087</v>
+        <v>13.01611213729468</v>
       </c>
     </row>
     <row r="74">
@@ -1913,19 +1913,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>98843.86600327335</v>
+        <v>55909.57155952224</v>
       </c>
       <c r="C74" t="n">
-        <v>80.24208010800015</v>
+        <v>2224.831614558189</v>
       </c>
       <c r="D74" t="n">
-        <v>0.000811806370517143</v>
+        <v>0.03979339409155724</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9991881936294829</v>
+        <v>0.9602066059084428</v>
       </c>
       <c r="F74" t="n">
-        <v>49.11702602398579</v>
+        <v>12.50031529580486</v>
       </c>
     </row>
     <row r="75">
@@ -1933,19 +1933,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>98763.62392316535</v>
+        <v>53684.73994496404</v>
       </c>
       <c r="C75" t="n">
-        <v>85.77307174847969</v>
+        <v>2282.255367674975</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0008684682511772568</v>
+        <v>0.04251218074288288</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9991315317488227</v>
+        <v>0.9574878192571171</v>
       </c>
       <c r="F75" t="n">
-        <v>48.15652570151752</v>
+        <v>11.99763876020356</v>
       </c>
     </row>
     <row r="76">
@@ -1953,19 +1953,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>98677.85085141686</v>
+        <v>51402.48457728907</v>
       </c>
       <c r="C76" t="n">
-        <v>91.68089111213195</v>
+        <v>2334.328578464405</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0009290929050550512</v>
+        <v>0.04541275772291697</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9990709070949449</v>
+        <v>0.954587242277083</v>
       </c>
       <c r="F76" t="n">
-        <v>47.19794985661422</v>
+        <v>11.50813057770718</v>
       </c>
     </row>
     <row r="77">
@@ -1973,19 +1973,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>98586.16996030473</v>
+        <v>49068.15599882467</v>
       </c>
       <c r="C77" t="n">
-        <v>97.99043452779212</v>
+        <v>2380.131610631949</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0009939572109074479</v>
+        <v>0.04850664473083033</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9990060427890926</v>
+        <v>0.9514933552691697</v>
       </c>
       <c r="F77" t="n">
-        <v>46.2413769383001</v>
+        <v>11.03182243610157</v>
       </c>
     </row>
     <row r="78">
@@ -1993,19 +1993,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>98488.17952577694</v>
+        <v>46688.02438819272</v>
       </c>
       <c r="C78" t="n">
-        <v>104.7281300184744</v>
+        <v>2418.719777425104</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001063357354382455</v>
+        <v>0.05180599969950306</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9989366426456175</v>
+        <v>0.9481940003004969</v>
       </c>
       <c r="F78" t="n">
-        <v>45.28688714494282</v>
+        <v>10.56872935872705</v>
       </c>
     </row>
     <row r="79">
@@ -2013,19 +2013,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>98383.45139575847</v>
+        <v>44269.30461076761</v>
       </c>
       <c r="C79" t="n">
-        <v>111.9220147398419</v>
+        <v>2449.13909553661</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001137610168702285</v>
+        <v>0.05532364054665784</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9988623898312977</v>
+        <v>0.9446763594533422</v>
       </c>
       <c r="F79" t="n">
-        <v>44.33456230650197</v>
+        <v>10.11884947124336</v>
       </c>
     </row>
     <row r="80">
@@ -2033,19 +2033,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>98271.52938101863</v>
+        <v>41820.165515231</v>
       </c>
       <c r="C80" t="n">
-        <v>119.6018137013284</v>
+        <v>2470.445374187933</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00121705456763177</v>
+        <v>0.05907306543988189</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9987829454323682</v>
+        <v>0.9409269345601181</v>
       </c>
       <c r="F80" t="n">
-        <v>43.38448574373231</v>
+        <v>9.682163843720526</v>
       </c>
     </row>
     <row r="81">
@@ -2053,19 +2053,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>98151.9275673173</v>
+        <v>39349.72014104307</v>
       </c>
       <c r="C81" t="n">
-        <v>127.7990192990673</v>
+        <v>2481.726687618262</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00130205307696496</v>
+        <v>0.06306847110279035</v>
       </c>
       <c r="E81" t="n">
-        <v>0.998697946923035</v>
+        <v>0.9369315288972097</v>
       </c>
       <c r="F81" t="n">
-        <v>42.43674210182656</v>
+        <v>9.258636411033525</v>
       </c>
     </row>
     <row r="82">
@@ -2073,19 +2073,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>98024.12854801823</v>
+        <v>36867.99345342481</v>
       </c>
       <c r="C82" t="n">
-        <v>136.5469710847305</v>
+        <v>2482.129128633119</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001392993471172166</v>
+        <v>0.06732476861722303</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9986070065288278</v>
+        <v>0.932675231382777</v>
       </c>
       <c r="F82" t="n">
-        <v>41.49141715574031</v>
+        <v>8.848213973909754</v>
       </c>
     </row>
     <row r="83">
@@ -2093,19 +2093,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>97887.5815769335</v>
+        <v>34385.86432479169</v>
       </c>
       <c r="C83" t="n">
-        <v>145.8809350719604</v>
+        <v>2470.885550067378</v>
       </c>
       <c r="D83" t="n">
-        <v>0.001490290522269233</v>
+        <v>0.07185759609613496</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9985097094777308</v>
+        <v>0.928142403903865</v>
       </c>
       <c r="F83" t="n">
-        <v>40.54859758417584</v>
+        <v>8.450826282298458</v>
       </c>
     </row>
     <row r="84">
@@ -2113,19 +2113,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>97741.70064186153</v>
+        <v>31914.97877472431</v>
       </c>
       <c r="C84" t="n">
-        <v>155.8381817428753</v>
+        <v>2447.346769964409</v>
       </c>
       <c r="D84" t="n">
-        <v>0.001594387868427694</v>
+        <v>0.07668332751336915</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9984056121315723</v>
+        <v>0.9233166724866309</v>
       </c>
       <c r="F84" t="n">
-        <v>39.60837070890699</v>
+        <v>8.066386202005688</v>
       </c>
     </row>
     <row r="85">
@@ -2133,19 +2133,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>97585.86246011866</v>
+        <v>29467.6320047599</v>
       </c>
       <c r="C85" t="n">
-        <v>166.45806175725</v>
+        <v>2411.014448453616</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001705760010321966</v>
+        <v>0.08181907687947798</v>
       </c>
       <c r="E85" t="n">
-        <v>0.998294239989678</v>
+        <v>0.918180923120522</v>
       </c>
       <c r="F85" t="n">
-        <v>38.6708241958011</v>
+        <v>7.694789964778034</v>
       </c>
     </row>
     <row r="86">
@@ -2153,19 +2153,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>97419.40439836141</v>
+        <v>27056.61755630629</v>
       </c>
       <c r="C86" t="n">
-        <v>177.7820781842949</v>
+        <v>2361.574547873419</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001824914443711023</v>
+        <v>0.08728269684704137</v>
       </c>
       <c r="E86" t="n">
-        <v>0.998175085556289</v>
+        <v>0.9127173031529586</v>
       </c>
       <c r="F86" t="n">
-        <v>37.73604571353208</v>
+        <v>7.335917501232633</v>
       </c>
     </row>
     <row r="87">
@@ -2173,19 +2173,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>97241.62232017712</v>
+        <v>24695.04300843287</v>
       </c>
       <c r="C87" t="n">
-        <v>189.8539538696469</v>
+        <v>2298.929976570143</v>
       </c>
       <c r="D87" t="n">
-        <v>0.001952393937284747</v>
+        <v>0.09309277071455613</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9980476060627153</v>
+        <v>0.9069072292854439</v>
       </c>
       <c r="F87" t="n">
-        <v>36.80412254557547</v>
+        <v>6.98963285523144</v>
       </c>
     </row>
     <row r="88">
@@ -2193,19 +2193,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>97051.76836630747</v>
+        <v>22396.11303186272</v>
       </c>
       <c r="C88" t="n">
-        <v>202.7196923150593</v>
+        <v>2223.230711652836</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002088778965365412</v>
+        <v>0.09926859667522969</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9979112210346346</v>
+        <v>0.9007314033247703</v>
       </c>
       <c r="F88" t="n">
-        <v>35.87514115062583</v>
+        <v>6.655784677496341</v>
       </c>
     </row>
     <row r="89">
@@ -2213,19 +2213,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>96849.04867399241</v>
+        <v>20172.88232020989</v>
       </c>
       <c r="C89" t="n">
-        <v>216.4276301822862</v>
+        <v>2134.899424662352</v>
       </c>
       <c r="D89" t="n">
-        <v>0.002234690305640608</v>
+        <v>0.1058301630265069</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9977653096943594</v>
+        <v>0.8941698369734931</v>
       </c>
       <c r="F89" t="n">
-        <v>34.94918666607324</v>
+        <v>6.33420679547107</v>
       </c>
     </row>
     <row r="90">
@@ -2233,19 +2233,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>96632.62104381013</v>
+        <v>18037.98289554754</v>
       </c>
       <c r="C90" t="n">
-        <v>231.0284792333288</v>
+        <v>2034.650431481878</v>
       </c>
       <c r="D90" t="n">
-        <v>0.002390791812721171</v>
+        <v>0.1127981129189399</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9976092081872788</v>
+        <v>0.8872018870810601</v>
       </c>
       <c r="F90" t="n">
-        <v>34.0263423486089</v>
+        <v>6.024718855668603</v>
       </c>
     </row>
     <row r="91">
@@ -2253,19 +2253,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>96401.5925645768</v>
+        <v>16003.33246406566</v>
       </c>
       <c r="C91" t="n">
-        <v>246.5753551836452</v>
+        <v>1923.49969446613</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002557793378967999</v>
+        <v>0.1201936970806057</v>
       </c>
       <c r="E91" t="n">
-        <v>0.997442206621032</v>
+        <v>0.8798063029193943</v>
       </c>
       <c r="F91" t="n">
-        <v>33.10668894539221</v>
+        <v>5.727127034011628</v>
       </c>
     </row>
     <row r="92">
@@ -2273,19 +2273,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>96155.01720939316</v>
+        <v>14079.83276959953</v>
       </c>
       <c r="C92" t="n">
-        <v>263.1237905687127</v>
+        <v>1802.763664369774</v>
       </c>
       <c r="D92" t="n">
-        <v>0.002736454094701246</v>
+        <v>0.128038712807883</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9972635459052988</v>
+        <v>0.871961287192117</v>
       </c>
       <c r="F92" t="n">
-        <v>32.19030398849042</v>
+        <v>5.441224808991309</v>
       </c>
     </row>
     <row r="93">
@@ -2293,19 +2293,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>95891.89341882445</v>
+        <v>12277.06910522975</v>
       </c>
       <c r="C93" t="n">
-        <v>280.7317283067428</v>
+        <v>1674.045004669849</v>
       </c>
       <c r="D93" t="n">
-        <v>0.002927585620617568</v>
+        <v>0.1363554273679818</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9970724143793824</v>
+        <v>0.8636445726320182</v>
       </c>
       <c r="F93" t="n">
-        <v>31.27726100448453</v>
+        <v>5.166793791847117</v>
       </c>
     </row>
     <row r="94">
@@ -2313,19 +2313,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>95611.16169051771</v>
+        <v>10603.02410055991</v>
       </c>
       <c r="C94" t="n">
-        <v>299.4594921764898</v>
+        <v>1539.203726505986</v>
       </c>
       <c r="D94" t="n">
-        <v>0.003132055785974086</v>
+        <v>0.145166483817075</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9968679442140259</v>
+        <v>0.854833516182925</v>
       </c>
       <c r="F94" t="n">
-        <v>30.36762863020487</v>
+        <v>4.903604607419382</v>
       </c>
     </row>
     <row r="95">
@@ -2333,19 +2333,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>95311.70219834121</v>
+        <v>9063.820374053919</v>
       </c>
       <c r="C95" t="n">
-        <v>319.369729917177</v>
+        <v>1400.312999049603</v>
       </c>
       <c r="D95" t="n">
-        <v>0.003350792426858318</v>
+        <v>0.1544947871052407</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9966492075731417</v>
+        <v>0.8455052128947593</v>
       </c>
       <c r="F95" t="n">
-        <v>29.46146962449858</v>
+        <v>4.65141781885522</v>
       </c>
     </row>
     <row r="96">
@@ -2353,19 +2353,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>94992.33246842404</v>
+        <v>7663.507375004317</v>
       </c>
       <c r="C96" t="n">
-        <v>340.5273240962493</v>
+        <v>1259.599884549784</v>
       </c>
       <c r="D96" t="n">
-        <v>0.003584787479657292</v>
+        <v>0.1643633682219917</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9964152125203427</v>
+        <v>0.8356366317780083</v>
       </c>
       <c r="F96" t="n">
-        <v>28.55883976471548</v>
+        <v>4.409984888965967</v>
       </c>
     </row>
     <row r="97">
@@ -2373,19 +2373,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>94651.80514432778</v>
+        <v>6403.907490454533</v>
       </c>
       <c r="C97" t="n">
-        <v>362.9992652774247</v>
+        <v>1119.372444536985</v>
       </c>
       <c r="D97" t="n">
-        <v>0.003835101345652236</v>
+        <v>0.1747952240418037</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9961648986543478</v>
+        <v>0.8252047759581963</v>
       </c>
       <c r="F97" t="n">
-        <v>27.65978661520348</v>
+        <v>4.179049170746116</v>
       </c>
     </row>
     <row r="98">
@@ -2393,19 +2393,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>94288.80587905036</v>
+        <v>5284.535045917548</v>
       </c>
       <c r="C98" t="n">
-        <v>386.8544813569024</v>
+        <v>981.9359999460876</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004102867543503974</v>
+        <v>0.1858131304672983</v>
       </c>
       <c r="E98" t="n">
-        <v>0.995897132456496</v>
+        <v>0.8141868695327017</v>
       </c>
       <c r="F98" t="n">
-        <v>26.76434815349527</v>
+        <v>3.958346919374217</v>
       </c>
     </row>
     <row r="99">
@@ -2413,19 +2413,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>93901.95139769345</v>
+        <v>4302.59904597146</v>
       </c>
       <c r="C99" t="n">
-        <v>412.1636162200502</v>
+        <v>849.5026878814019</v>
       </c>
       <c r="D99" t="n">
-        <v>0.00438929766724927</v>
+        <v>0.1974394264501115</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9956107023327507</v>
+        <v>0.8025605735498885</v>
       </c>
       <c r="F99" t="n">
-        <v>25.8725512380091</v>
+        <v>3.747608317927206</v>
       </c>
     </row>
     <row r="100">
@@ -2433,19 +2433,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>93489.78778147341</v>
+        <v>3453.096358090058</v>
       </c>
       <c r="C100" t="n">
-        <v>438.9987501080868</v>
+        <v>724.0996876412266</v>
       </c>
       <c r="D100" t="n">
-        <v>0.004695686668304555</v>
+        <v>0.2096957665096069</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9953043133316954</v>
+        <v>0.7903042334903931</v>
       </c>
       <c r="F100" t="n">
-        <v>24.98440989892969</v>
+        <v>3.546558509051067</v>
       </c>
     </row>
     <row r="101">
@@ -2453,19 +2453,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>93050.78903136532</v>
+        <v>2728.996670448832</v>
       </c>
       <c r="C101" t="n">
-        <v>467.4330532779358</v>
+        <v>607.4824077827107</v>
       </c>
       <c r="D101" t="n">
-        <v>0.005023418480851083</v>
+        <v>0.2226028394834206</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9949765815191489</v>
+        <v>0.7773971605165794</v>
       </c>
       <c r="F101" t="n">
-        <v>24.09992343142796</v>
+        <v>3.354918624940025</v>
       </c>
     </row>
     <row r="102">
@@ -2473,19 +2473,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>92583.35597808738</v>
+        <v>2121.514262666121</v>
       </c>
       <c r="C102" t="n">
-        <v>497.5403636982316</v>
+        <v>501.0593477077775</v>
       </c>
       <c r="D102" t="n">
-        <v>0.005373972010865424</v>
+        <v>0.2361800514497098</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9946260279891346</v>
+        <v>0.7638199485502902</v>
       </c>
       <c r="F102" t="n">
-        <v>23.21907426745176</v>
+        <v>3.172406808178892</v>
       </c>
     </row>
     <row r="103">
@@ -2493,19 +2493,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>92085.81561438914</v>
+        <v>1620.454914958343</v>
       </c>
       <c r="C103" t="n">
-        <v>529.3946786605628</v>
+        <v>405.835108403661</v>
       </c>
       <c r="D103" t="n">
-        <v>0.005748927509937163</v>
+        <v>0.2504451710796864</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9942510724900628</v>
+        <v>0.7495548289203136</v>
       </c>
       <c r="F103" t="n">
-        <v>22.34182559889729</v>
+        <v>2.99873921629181</v>
       </c>
     </row>
     <row r="104">
@@ -2513,19 +2513,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>91556.42093572857</v>
+        <v>1214.619806554682</v>
       </c>
       <c r="C104" t="n">
-        <v>563.0695493150002</v>
+        <v>322.3770237636083</v>
       </c>
       <c r="D104" t="n">
-        <v>0.006149973355885852</v>
+        <v>0.2654139361336809</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9938500266441141</v>
+        <v>0.7345860638663191</v>
       </c>
       <c r="F104" t="n">
-        <v>21.46811872095375</v>
+        <v>2.833631003206378</v>
       </c>
     </row>
     <row r="105">
@@ -2533,19 +2533,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>90993.35138641357</v>
+        <v>892.242782791074</v>
       </c>
       <c r="C105" t="n">
-        <v>598.6373662836008</v>
+        <v>250.8091075737486</v>
       </c>
       <c r="D105" t="n">
-        <v>0.006578913263029729</v>
+        <v>0.2810996204297431</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9934210867369703</v>
+        <v>0.7189003795702569</v>
       </c>
       <c r="F105" t="n">
-        <v>20.59787005968677</v>
+        <v>2.676797271273927</v>
       </c>
     </row>
     <row r="106">
@@ -2553,19 +2553,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>90394.71402012998</v>
+        <v>641.4336752173253</v>
       </c>
       <c r="C106" t="n">
-        <v>636.1685236940197</v>
+        <v>190.8345756932468</v>
       </c>
       <c r="D106" t="n">
-        <v>0.00703767394576138</v>
+        <v>0.2975125614173434</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9929623260542386</v>
+        <v>0.7024874385826566</v>
       </c>
       <c r="F106" t="n">
-        <v>19.73096784234873</v>
+        <v>2.527953987971421</v>
       </c>
     </row>
     <row r="107">
@@ -2573,19 +2573,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>89758.54549643595</v>
+        <v>450.5990995240786</v>
       </c>
       <c r="C107" t="n">
-        <v>675.7304482445159</v>
+        <v>141.7853547246312</v>
       </c>
       <c r="D107" t="n">
-        <v>0.00752831325983716</v>
+        <v>0.3146596495074768</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9924716867401628</v>
+        <v>0.6853403504925232</v>
       </c>
       <c r="F107" t="n">
-        <v>18.86726836230268</v>
+        <v>2.386818861933011</v>
       </c>
     </row>
     <row r="108">
@@ -2593,19 +2593,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>89082.81504819143</v>
+        <v>308.8137447994473</v>
       </c>
       <c r="C108" t="n">
-        <v>717.3864793065488</v>
+        <v>102.694090496799</v>
       </c>
       <c r="D108" t="n">
-        <v>0.008053028846455534</v>
+        <v>0.3325437815712885</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9919469711535445</v>
+        <v>0.6674562184287115</v>
       </c>
       <c r="F108" t="n">
-        <v>18.00659178261412</v>
+        <v>2.25311217350188</v>
       </c>
     </row>
     <row r="109">
@@ -2613,19 +2613,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>88365.42856888489</v>
+        <v>206.1196543026483</v>
       </c>
       <c r="C109" t="n">
-        <v>761.1945856511508</v>
+        <v>72.38165440235987</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00861416730478215</v>
+        <v>0.3511632825469467</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9913858326952179</v>
+        <v>0.6488367174530533</v>
       </c>
       <c r="F109" t="n">
-        <v>17.14871741304432</v>
+        <v>2.126557555533694</v>
       </c>
     </row>
     <row r="110">
@@ -2633,19 +2633,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>87604.23398323375</v>
+        <v>133.7379999002884</v>
       </c>
       <c r="C110" t="n">
-        <v>807.2059042188442</v>
+        <v>49.55144032404993</v>
       </c>
       <c r="D110" t="n">
-        <v>0.009214233919028758</v>
+        <v>0.370511300909197</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9907857660809712</v>
+        <v>0.629488699090803</v>
       </c>
       <c r="F110" t="n">
-        <v>16.29337838405709</v>
+        <v>2.006882720692182</v>
       </c>
     </row>
     <row r="111">
@@ -2653,19 +2653,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>86797.0280790149</v>
+        <v>84.18655957623849</v>
       </c>
       <c r="C111" t="n">
-        <v>855.4630865273147</v>
+        <v>32.88118115431447</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00985590296649963</v>
+        <v>0.3905751858708231</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9901440970335004</v>
+        <v>0.6094248141291769</v>
       </c>
       <c r="F111" t="n">
-        <v>15.44025562814393</v>
+        <v>1.893820131908064</v>
       </c>
     </row>
     <row r="112">
@@ -2673,19 +2673,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>85941.56499248758</v>
+        <v>51.30537842192403</v>
       </c>
       <c r="C112" t="n">
-        <v>905.9984389262942</v>
+        <v>21.10374178148575</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01054202863312403</v>
+        <v>0.4113358566022702</v>
       </c>
       <c r="E112" t="n">
-        <v>0.989457971366876</v>
+        <v>0.5886641433977298</v>
       </c>
       <c r="F112" t="n">
-        <v>14.58897106280324</v>
+        <v>1.787107612937832</v>
       </c>
     </row>
     <row r="113">
@@ -2693,19 +2693,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>85035.56655356128</v>
+        <v>30.20163664043827</v>
       </c>
       <c r="C113" t="n">
-        <v>958.8318440880228</v>
+        <v>13.07027701340797</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01127565656288165</v>
+        <v>0.4327671764618085</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9887243434371183</v>
+        <v>0.5672328235381915</v>
       </c>
       <c r="F113" t="n">
-        <v>13.73907985029438</v>
+        <v>1.686488895873179</v>
       </c>
     </row>
     <row r="114">
@@ -2713,19 +2713,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>84076.73470947325</v>
+        <v>17.1313596270303</v>
       </c>
       <c r="C114" t="n">
-        <v>1013.96845300235</v>
+        <v>7.791947920935902</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01206003606712502</v>
+        <v>0.4548353481904358</v>
       </c>
       <c r="E114" t="n">
-        <v>0.987939963932875</v>
+        <v>0.5451646518095642</v>
       </c>
       <c r="F114" t="n">
-        <v>12.89006158609502</v>
+        <v>1.591714101578772</v>
       </c>
     </row>
     <row r="115">
@@ -2733,19 +2733,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>83062.7662564709</v>
+        <v>9.339411706094401</v>
       </c>
       <c r="C115" t="n">
-        <v>1071.396139491683</v>
+        <v>4.459553672007787</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01289863301907812</v>
+        <v>0.4774983491837843</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9871013669809219</v>
+        <v>0.5225016508162157</v>
       </c>
       <c r="F115" t="n">
-        <v>12.04131023991743</v>
+        <v>1.502540146275161</v>
       </c>
     </row>
     <row r="116">
@@ -2753,19 +2753,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>81991.37011697922</v>
+        <v>4.879858034086614</v>
       </c>
       <c r="C116" t="n">
-        <v>1131.082713054078</v>
+        <v>2.44337141147017</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01379514345766308</v>
+        <v>0.5007054292159356</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9862048565423369</v>
+        <v>0.4992945707840644</v>
       </c>
       <c r="F116" t="n">
-        <v>11.19212263905263</v>
+        <v>1.418731059909692</v>
       </c>
     </row>
     <row r="117">
@@ -2773,19 +2773,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>80860.28740392515</v>
+        <v>2.436486622616444</v>
       </c>
       <c r="C117" t="n">
-        <v>1192.972890886951</v>
+        <v>1.277685535301723</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01475350792321128</v>
+        <v>0.5243966962271553</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9852464920767887</v>
+        <v>0.4756033037728447</v>
       </c>
       <c r="F117" t="n">
-        <v>10.34168524229288</v>
+        <v>1.340058181419774</v>
       </c>
     </row>
     <row r="118">
@@ -2793,19 +2793,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>79667.31451303819</v>
+        <v>1.158801087314721</v>
       </c>
       <c r="C118" t="n">
-        <v>1256.985036462002</v>
+        <v>0.6356056628492537</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01577792654547538</v>
+        <v>0.5485028188247016</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9842220734545246</v>
+        <v>0.4514971811752984</v>
       </c>
       <c r="F118" t="n">
-        <v>9.489058901948203</v>
+        <v>1.266300138699201</v>
       </c>
     </row>
     <row r="119">
@@ -2813,19 +2813,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>78410.32947657618</v>
+        <v>0.5231954244654673</v>
       </c>
       <c r="C119" t="n">
-        <v>1323.007680248745</v>
+        <v>0.2997621379916046</v>
       </c>
       <c r="D119" t="n">
-        <v>0.01687287490156475</v>
+        <v>0.5729448767596972</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9831271250984353</v>
+        <v>0.4270551232403028</v>
       </c>
       <c r="F119" t="n">
-        <v>8.633161249267124</v>
+        <v>1.19724235421456</v>
       </c>
     </row>
     <row r="120">
@@ -2833,19 +2833,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>77087.32179632744</v>
+        <v>0.2234332864738627</v>
       </c>
       <c r="C120" t="n">
-        <v>1390.895848364528</v>
+        <v>0.1335314164392539</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01804312065788738</v>
+        <v>0.5976343925589369</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9819568793421126</v>
+        <v>0.4023656074410631</v>
       </c>
       <c r="F120" t="n">
-        <v>7.772746262038893</v>
+        <v>1.132675306466755</v>
       </c>
     </row>
     <row r="121">
@@ -2853,19 +2853,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>75696.42594796291</v>
+        <v>0.08990187003460882</v>
       </c>
       <c r="C121" t="n">
-        <v>1460.467237302114</v>
+        <v>0.05596153874382179</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01929374100576564</v>
+        <v>0.6224735783836166</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9807062589942344</v>
+        <v>0.3775264216163834</v>
       </c>
       <c r="F121" t="n">
-        <v>6.906380478653459</v>
+        <v>1.072389127615554</v>
       </c>
     </row>
     <row r="122">
@@ -2873,19 +2873,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>74235.95871066079</v>
+        <v>0.03394033129078704</v>
       </c>
       <c r="C122" t="n">
-        <v>1531.498287673972</v>
+        <v>0.02197147139053067</v>
       </c>
       <c r="D122" t="n">
-        <v>0.02063014089496817</v>
+        <v>0.6473558316885001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9793698591050318</v>
+        <v>0.3526441683114999</v>
       </c>
       <c r="F122" t="n">
-        <v>6.032415205775823</v>
+        <v>1.016156472346661</v>
       </c>
     </row>
     <row r="123">
@@ -2893,19 +2893,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>72704.46042298683</v>
+        <v>0.01196885990025637</v>
       </c>
       <c r="C123" t="n">
-        <v>1603.720227297692</v>
+        <v>0.008045066799387993</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0220580720628063</v>
+        <v>0.672166510965315</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9779419279371937</v>
+        <v>0.327833489034685</v>
       </c>
       <c r="F123" t="n">
-        <v>5.148953921076821</v>
+        <v>0.9636750547104648</v>
       </c>
     </row>
     <row r="124">
@@ -2913,19 +2913,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>71100.74019568914</v>
+        <v>0.003923793100868378</v>
       </c>
       <c r="C124" t="n">
-        <v>1676.815174047466</v>
+        <v>0.00273403632405266</v>
       </c>
       <c r="D124" t="n">
-        <v>0.02358365284851327</v>
+        <v>0.696784018364166</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9764163471514867</v>
+        <v>0.303215981635834</v>
       </c>
       <c r="F124" t="n">
-        <v>4.253813890445435</v>
+        <v>0.9143614676943748</v>
       </c>
     </row>
     <row r="125">
@@ -2933,19 +2933,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>69423.92502164167</v>
+        <v>0.001189756776815718</v>
       </c>
       <c r="C125" t="n">
-        <v>1750.412411729187</v>
+        <v>0.000857911254935346</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02521338877315749</v>
+        <v>0.7210812089101706</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9747866112268425</v>
+        <v>0.2789187910898294</v>
       </c>
       <c r="F125" t="n">
-        <v>3.344480790798403</v>
+        <v>0.8665555009960784</v>
       </c>
     </row>
     <row r="126">
@@ -2953,19 +2953,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67673.51260991248</v>
+        <v>0.0003318455218803721</v>
       </c>
       <c r="C126" t="n">
-        <v>1824.084977676673</v>
+        <v>0.0002472007342250149</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0269541938541179</v>
+        <v>0.7449271360489503</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9730458061458821</v>
+        <v>0.2550728639510497</v>
       </c>
       <c r="F126" t="n">
-        <v>2.418054841990914</v>
+        <v>0.8142015264149931</v>
       </c>
     </row>
     <row r="127">
@@ -2973,19 +2973,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>65849.42763223581</v>
+        <v>8.464478765535722e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>1897.346728495803</v>
+        <v>6.502320580192157e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>0.02881341260993708</v>
+        <v>0.7681891301644279</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9711865873900629</v>
+        <v>0.2318108698355721</v>
       </c>
       <c r="F127" t="n">
-        <v>1.471186587390063</v>
+        <v>0.7318108698355721</v>
       </c>
     </row>
     <row r="128">
@@ -2993,10 +2993,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>63952.08090374</v>
+        <v>1.962158185343565e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>63952.08090374</v>
+        <v>1.962158185343565e-05</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
